--- a/results/3-2021/annual_contributions.xlsx
+++ b/results/3-2021/annual_contributions.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/results/3-2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E427B06-ADC8-5249-A738-4CF2C5A22E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99010809-FF8C-BB4C-8D82-B8C1CB5CD0E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21200" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34680" yWindow="2560" windowWidth="31940" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Year over year growth rates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1345,7 +1356,7 @@
   <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
